--- a/outputs-GTDB-r202/g__CAG-110.xlsx
+++ b/outputs-GTDB-r202/g__CAG-110.xlsx
@@ -792,7 +792,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>s__CAG-110 sp900316335</t>
+          <t>s__CAG-110 sp900316335(reject)</t>
         </is>
       </c>
     </row>
